--- a/data/output/Pedido_Semana_07_13022026_deco_exterior.xlsx
+++ b/data/output/Pedido_Semana_07_13022026_deco_exterior.xlsx
@@ -678,7 +678,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>9201040008</t>
@@ -737,25 +737,25 @@
       </c>
       <c r="O3" s="7" t="inlineStr"/>
       <c r="P3" s="3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" hidden="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>9203010004</t>
@@ -814,10 +814,10 @@
       </c>
       <c r="O4" s="7" t="inlineStr"/>
       <c r="P4" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1140,7 +1140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="1">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>9401010013</t>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>16.6</v>
+        <v>0</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="inlineStr">
         <is>
@@ -1203,103 +1203,103 @@
         </is>
       </c>
       <c r="P9" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" hidden="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>9401010019</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>MACETA VENEZIA CILINDRO BRONCE</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20CM     </t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>deco_exterior</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 15%</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
+        </is>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="R9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="8" t="n">
+      <c r="T10" s="3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>9401010019</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>MACETA VENEZIA CILINDRO BRONCE</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">25CM     </t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>deco_exterior</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="I10" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 19%</t>
-        </is>
-      </c>
-      <c r="K10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="O10" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
-        </is>
-      </c>
-      <c r="P10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="U10" s="8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" hidden="1">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">20CM     </t>
+          <t xml:space="preserve">25CM     </t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1329,13 +1329,13 @@
         </is>
       </c>
       <c r="F11" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>0.66</v>
+        <v>0.88</v>
       </c>
       <c r="I11" s="5" t="inlineStr">
         <is>
@@ -1344,14 +1344,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>REDUCIR 19%</t>
         </is>
       </c>
       <c r="K11" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>0</v>
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T11" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U11" s="8" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="6" t="n">
-        <v>60.75</v>
+        <v>6.75</v>
       </c>
       <c r="N12" s="4" t="n">
-        <v>36.45</v>
+        <v>4.05</v>
       </c>
       <c r="O12" s="7" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="P12" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
@@ -1461,10 +1461,10 @@
         <v>3</v>
       </c>
       <c r="U12" s="8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" hidden="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>9401010020</t>
@@ -1516,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="6" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="inlineStr">
         <is>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="P13" s="3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="U13" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" hidden="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>9401010024</t>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">13CM     </t>
+          <t xml:space="preserve">11CM     </t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1575,10 +1575,10 @@
         <v>2</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>0.72</v>
+        <v>0.58</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
       <c r="I14" s="5" t="inlineStr">
         <is>
@@ -1597,10 +1597,10 @@
         <v>1</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="N14" s="4" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="inlineStr">
         <is>
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="P14" s="3" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="U14" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" hidden="1">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">11CM     </t>
+          <t xml:space="preserve">13CM     </t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1656,10 +1656,10 @@
         <v>2</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>0.58</v>
+        <v>0.72</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="I15" s="5" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="6" t="n">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         </is>
       </c>
       <c r="P15" s="3" t="n">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="3" t="n">
         <v>0</v>
@@ -1759,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="6" t="n">
-        <v>71.7</v>
+        <v>53.78</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>43.02</v>
+        <v>32.27</v>
       </c>
       <c r="O16" s="7" t="inlineStr">
         <is>
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="P16" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="U16" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" hidden="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>9401010032</t>
@@ -1837,13 +1837,13 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="6" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>16.32</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="inlineStr">
         <is>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="P17" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R17" s="2" t="n">
         <v>0</v>
@@ -1866,10 +1866,10 @@
         <v>0</v>
       </c>
       <c r="U17" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" hidden="1">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>9401010033</t>
@@ -1921,10 +1921,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>10.3</v>
+        <v>0</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>6.18</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="inlineStr">
         <is>
@@ -1932,10 +1932,10 @@
         </is>
       </c>
       <c r="P18" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" hidden="1">
@@ -1999,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="6" t="n">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
           <t>9401020008</t>
@@ -2164,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="6" t="n">
-        <v>15.75</v>
+        <v>0</v>
       </c>
       <c r="N21" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="inlineStr">
         <is>
@@ -2175,10 +2175,10 @@
         </is>
       </c>
       <c r="P21" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2" t="n">
         <v>0</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2245,10 +2245,10 @@
         <v>5</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>24.7</v>
+        <v>22.8</v>
       </c>
       <c r="N22" s="4" t="n">
-        <v>14.82</v>
+        <v>13.68</v>
       </c>
       <c r="O22" s="7" t="inlineStr">
         <is>
@@ -2256,10 +2256,10 @@
         </is>
       </c>
       <c r="P22" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">15CM     </t>
+          <t xml:space="preserve">40CM     </t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2301,58 +2301,58 @@
         </is>
       </c>
       <c r="F23" s="3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>0.58</v>
+        <v>3</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>0.23</v>
+        <v>1.2</v>
       </c>
       <c r="I23" s="5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>AUMENTAR 30%</t>
         </is>
       </c>
       <c r="K23" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="N23" s="4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O23" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
+        </is>
+      </c>
+      <c r="P23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M23" s="6" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="N23" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="O23" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
-        </is>
-      </c>
-      <c r="P23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3" t="n">
-        <v>15</v>
-      </c>
       <c r="R23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="8" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">40CM     </t>
+          <t xml:space="preserve">15CM     </t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -2382,382 +2382,382 @@
         </is>
       </c>
       <c r="F24" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I24" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>AUMENTAR 19%</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M24" s="6" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="N24" s="4" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="O24" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
+        </is>
+      </c>
+      <c r="P24" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="R24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" s="8" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" hidden="1">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>9401020010</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>PLATO REDONDO BLANCO</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16CM     </t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>deco_exterior</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H25" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I25" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 40%</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
+        </is>
+      </c>
+      <c r="P25" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" hidden="1">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>9401020010</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>PLATO REDONDO BLANCO</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26CM     </t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>deco_exterior</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H26" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 19%</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
+        </is>
+      </c>
+      <c r="P26" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" hidden="1">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>9401020012</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>PLATO REDONDO TERRACOTA</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15CM     </t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>deco_exterior</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G27" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H27" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 40%</t>
+        </is>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
+        </is>
+      </c>
+      <c r="P27" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" hidden="1">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>9401020012</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>PLATO REDONDO TERRACOTA</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">35CM     </t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>deco_exterior</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H28" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 19%</t>
+        </is>
+      </c>
+      <c r="K28" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
+        </is>
+      </c>
+      <c r="P28" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="H24" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="I24" s="5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>AUMENTAR 30%</t>
-        </is>
-      </c>
-      <c r="K24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="N24" s="4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O24" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
-        </is>
-      </c>
-      <c r="P24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="n">
+      <c r="T28" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="R24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>9401020010</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>PLATO REDONDO BLANCO</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">26CM     </t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>deco_exterior</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="H25" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I25" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 19%</t>
-        </is>
-      </c>
-      <c r="K25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N25" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O25" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
-        </is>
-      </c>
-      <c r="P25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U25" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>9401020010</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>PLATO REDONDO BLANCO</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">16CM     </t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>deco_exterior</t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="H26" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="I26" s="5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 40%</t>
-        </is>
-      </c>
-      <c r="K26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N26" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="O26" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
-        </is>
-      </c>
-      <c r="P26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>9401020012</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>PLATO REDONDO TERRACOTA</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">35CM     </t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>deco_exterior</t>
-        </is>
-      </c>
-      <c r="F27" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G27" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="H27" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="I27" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 19%</t>
-        </is>
-      </c>
-      <c r="K27" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="6" t="n">
-        <v>26.55</v>
-      </c>
-      <c r="N27" s="4" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="O27" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
-        </is>
-      </c>
-      <c r="P27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="R27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="T27" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U27" s="8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>9401020012</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>PLATO REDONDO TERRACOTA</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">15CM     </t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>deco_exterior</t>
-        </is>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G28" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="H28" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 40%</t>
-        </is>
-      </c>
-      <c r="K28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="6" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="N28" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="O28" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
-        </is>
-      </c>
-      <c r="P28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="U28" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="M29" s="6" t="n">
-        <v>3.38</v>
+        <v>2.03</v>
       </c>
       <c r="N29" s="4" t="n">
-        <v>2.03</v>
+        <v>1.22</v>
       </c>
       <c r="O29" s="7" t="inlineStr">
         <is>
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="P29" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="2" t="n">
         <v>0</v>
@@ -2838,10 +2838,10 @@
         <v>3</v>
       </c>
       <c r="U29" s="8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" hidden="1">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>9401030003</t>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>23.45</v>
+        <v>0</v>
       </c>
       <c r="N30" s="4" t="n">
-        <v>14.07</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="inlineStr">
         <is>
@@ -2904,10 +2904,10 @@
         </is>
       </c>
       <c r="P30" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="U30" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" hidden="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>9401040001</t>
@@ -2974,10 +2974,10 @@
         <v>0</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="inlineStr">
         <is>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="P31" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R31" s="2" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="U31" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" hidden="1">
       <c r="A32" s="2" t="inlineStr">
         <is>
           <t>9401050001</t>
@@ -3055,10 +3055,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="6" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="N32" s="4" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="inlineStr">
         <is>
@@ -3066,10 +3066,10 @@
         </is>
       </c>
       <c r="P32" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
@@ -3081,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="U32" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" hidden="1">
       <c r="A33" s="2" t="inlineStr">
         <is>
           <t>9401050005</t>
@@ -3136,10 +3136,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="6" t="n">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>7.08</v>
+        <v>0</v>
       </c>
       <c r="O33" s="7" t="inlineStr">
         <is>
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="P33" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" hidden="1">
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
           <t>9201050003</t>
@@ -3460,10 +3460,10 @@
         <v>2</v>
       </c>
       <c r="M37" s="6" t="n">
-        <v>50.7</v>
+        <v>0</v>
       </c>
       <c r="N37" s="4" t="n">
-        <v>30.42</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="inlineStr">
         <is>
@@ -3471,10 +3471,10 @@
         </is>
       </c>
       <c r="P37" s="3" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R37" s="2" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="U37" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" hidden="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
           <t>9201050008</t>
@@ -3541,10 +3541,10 @@
         <v>0</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7" t="inlineStr">
         <is>
@@ -3552,25 +3552,25 @@
         </is>
       </c>
       <c r="P38" s="3" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T38" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U38" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" hidden="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
           <t>9201050009</t>
@@ -3622,10 +3622,10 @@
         <v>0</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>19.8</v>
+        <v>0</v>
       </c>
       <c r="O39" s="7" t="inlineStr">
         <is>
@@ -3633,22 +3633,22 @@
         </is>
       </c>
       <c r="P39" s="3" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T39" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U39" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" hidden="1">
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="1">
       <c r="A41" s="2" t="inlineStr">
         <is>
           <t>9402010032</t>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">25CM     </t>
+          <t xml:space="preserve">11CM     </t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -3762,205 +3762,205 @@
         <v>1</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.16</v>
+        <v>0.32</v>
       </c>
       <c r="I41" s="5" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 40%</t>
+        </is>
+      </c>
+      <c r="K41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CERAMICA DE BOIALVO LDA                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P41" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U41" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" hidden="1">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>9402010032</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>MACETA AMALIA NATURAL</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13CM     </t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>deco_exterior</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H42" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I42" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 40%</t>
+        </is>
+      </c>
+      <c r="K42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CERAMICA DE BOIALVO LDA                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P42" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" hidden="1">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>9402010032</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>MACETA AMALIA NATURAL</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17CM     </t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>deco_exterior</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H43" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I43" s="5" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
-      <c r="J41" s="2" t="inlineStr">
+      <c r="J43" s="2" t="inlineStr">
         <is>
           <t>REDUCIR 19%</t>
         </is>
       </c>
-      <c r="K41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" s="6" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="N41" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="O41" s="7" t="inlineStr">
+      <c r="K43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">CERAMICA DE BOIALVO LDA                                                                                                 </t>
         </is>
       </c>
-      <c r="P41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>9402010032</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>MACETA AMALIA NATURAL</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">17CM     </t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>deco_exterior</t>
-        </is>
-      </c>
-      <c r="F42" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H42" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="I42" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 19%</t>
-        </is>
-      </c>
-      <c r="K42" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" s="6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="N42" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="O42" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CERAMICA DE BOIALVO LDA                                                                                                 </t>
-        </is>
-      </c>
-      <c r="P42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>9402010032</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>MACETA AMALIA NATURAL</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">13CM     </t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>deco_exterior</t>
-        </is>
-      </c>
-      <c r="F43" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="H43" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="I43" s="5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 40%</t>
-        </is>
-      </c>
-      <c r="K43" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L43" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" s="6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="N43" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O43" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CERAMICA DE BOIALVO LDA                                                                                                 </t>
-        </is>
-      </c>
       <c r="P43" s="3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q43" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R43" s="2" t="n">
         <v>0</v>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" hidden="1">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">11CM     </t>
+          <t xml:space="preserve">25CM     </t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
@@ -4005,26 +4005,26 @@
         <v>1</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>0.32</v>
+        <v>1.16</v>
       </c>
       <c r="I44" s="5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 40%</t>
+          <t>REDUCIR 19%</t>
         </is>
       </c>
       <c r="K44" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="6" t="n">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         </is>
       </c>
       <c r="P44" s="3" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q44" s="3" t="n">
         <v>0</v>
@@ -4047,16 +4047,16 @@
         <v>0</v>
       </c>
       <c r="S44" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T44" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U44" s="8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
           <t>9402010035</t>
@@ -4108,10 +4108,10 @@
         <v>0</v>
       </c>
       <c r="M45" s="6" t="n">
-        <v>14.45</v>
+        <v>0</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>8.67</v>
+        <v>0</v>
       </c>
       <c r="O45" s="7" t="inlineStr">
         <is>
@@ -4119,10 +4119,10 @@
         </is>
       </c>
       <c r="P45" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q45" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R45" s="2" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="U45" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" hidden="1">
@@ -4299,7 +4299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="1">
       <c r="A48" s="2" t="inlineStr">
         <is>
           <t>9402010051</t>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="M48" s="6" t="n">
-        <v>43.55</v>
+        <v>0</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>26.13</v>
+        <v>0</v>
       </c>
       <c r="O48" s="7" t="inlineStr">
         <is>
@@ -4362,58 +4362,58 @@
         </is>
       </c>
       <c r="P48" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" hidden="1">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>9402020003</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>PLATO REDONDO NATURAL</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11CM     </t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>deco_exterior</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="R48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>9402020003</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>PLATO REDONDO NATURAL</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">13CM     </t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>deco_exterior</t>
-        </is>
-      </c>
-      <c r="F49" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="G49" s="4" t="n">
-        <v>1.23</v>
+        <v>1.02</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="I49" s="5" t="inlineStr">
         <is>
@@ -4432,10 +4432,10 @@
         <v>0</v>
       </c>
       <c r="M49" s="6" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="N49" s="4" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="O49" s="7" t="inlineStr">
         <is>
@@ -4443,10 +4443,10 @@
         </is>
       </c>
       <c r="P49" s="3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q49" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R49" s="2" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="U49" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" hidden="1">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">11CM     </t>
+          <t xml:space="preserve">13CM     </t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
@@ -4488,13 +4488,13 @@
         </is>
       </c>
       <c r="F50" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="I50" s="5" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="6" t="n">
         <v>0</v>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="P50" s="3" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="Q50" s="3" t="n">
         <v>0</v>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
           <t>9402020005</t>
@@ -4594,10 +4594,10 @@
         <v>1</v>
       </c>
       <c r="M51" s="6" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="N51" s="4" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="O51" s="7" t="inlineStr">
         <is>
@@ -4605,10 +4605,10 @@
         </is>
       </c>
       <c r="P51" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q51" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R51" s="2" t="n">
         <v>0</v>
@@ -4620,10 +4620,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" hidden="1">
       <c r="A52" s="2" t="inlineStr">
         <is>
           <t>9201050010</t>
@@ -4675,10 +4675,10 @@
         <v>1</v>
       </c>
       <c r="M52" s="6" t="n">
-        <v>73.8</v>
+        <v>0</v>
       </c>
       <c r="N52" s="4" t="n">
-        <v>44.28</v>
+        <v>0</v>
       </c>
       <c r="O52" s="7" t="inlineStr">
         <is>
@@ -4686,22 +4686,22 @@
         </is>
       </c>
       <c r="P52" s="3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="Q52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="R52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="T52" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U52" s="8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4756,10 +4756,10 @@
         <v>0</v>
       </c>
       <c r="M53" s="6" t="n">
-        <v>511.42</v>
+        <v>340.95</v>
       </c>
       <c r="N53" s="4" t="n">
-        <v>306.85</v>
+        <v>204.57</v>
       </c>
       <c r="O53" s="7" t="inlineStr">
         <is>
@@ -4767,10 +4767,10 @@
         </is>
       </c>
       <c r="P53" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R53" s="2" t="n">
         <v>0</v>
@@ -4782,10 +4782,10 @@
         <v>0</v>
       </c>
       <c r="U53" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" hidden="1">
       <c r="A54" s="2" t="inlineStr">
         <is>
           <t>9201050012</t>
@@ -4837,10 +4837,10 @@
         <v>0</v>
       </c>
       <c r="M54" s="6" t="n">
-        <v>68.75</v>
+        <v>0</v>
       </c>
       <c r="N54" s="4" t="n">
-        <v>41.25</v>
+        <v>0</v>
       </c>
       <c r="O54" s="7" t="inlineStr">
         <is>
@@ -4848,10 +4848,10 @@
         </is>
       </c>
       <c r="P54" s="3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q54" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R54" s="2" t="n">
         <v>0</v>
@@ -4863,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -4947,7 +4947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="1">
       <c r="A56" s="2" t="inlineStr">
         <is>
           <t>9202010009</t>
@@ -4999,10 +4999,10 @@
         <v>1</v>
       </c>
       <c r="M56" s="6" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="N56" s="4" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="O56" s="7" t="inlineStr">
         <is>
@@ -5010,22 +5010,22 @@
         </is>
       </c>
       <c r="P56" s="3" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Q56" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S56" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T56" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U56" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M57" s="6" t="n">
         <v>4.25</v>
@@ -5242,10 +5242,10 @@
         <v>0</v>
       </c>
       <c r="M59" s="6" t="n">
-        <v>54.5</v>
+        <v>27.25</v>
       </c>
       <c r="N59" s="4" t="n">
-        <v>32.7</v>
+        <v>16.35</v>
       </c>
       <c r="O59" s="7" t="inlineStr">
         <is>
@@ -5253,10 +5253,10 @@
         </is>
       </c>
       <c r="P59" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R59" s="2" t="n">
         <v>0</v>
@@ -5268,10 +5268,10 @@
         <v>0</v>
       </c>
       <c r="U59" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" hidden="1">
       <c r="A60" s="2" t="inlineStr">
         <is>
           <t>9406010010</t>
@@ -5323,10 +5323,10 @@
         <v>0</v>
       </c>
       <c r="M60" s="6" t="n">
-        <v>65.75</v>
+        <v>0</v>
       </c>
       <c r="N60" s="4" t="n">
-        <v>39.45</v>
+        <v>0</v>
       </c>
       <c r="O60" s="7" t="inlineStr">
         <is>
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="P60" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q60" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R60" s="2" t="n">
         <v>0</v>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -5433,7 +5433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
           <t>9201040013</t>
@@ -5482,13 +5482,13 @@
         <v>1</v>
       </c>
       <c r="L62" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" s="6" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
       <c r="N62" s="4" t="n">
-        <v>8.58</v>
+        <v>0</v>
       </c>
       <c r="O62" s="7" t="inlineStr">
         <is>
@@ -5496,10 +5496,10 @@
         </is>
       </c>
       <c r="P62" s="3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q62" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R62" s="2" t="n">
         <v>0</v>
@@ -5511,10 +5511,10 @@
         <v>0</v>
       </c>
       <c r="U62" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" hidden="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
           <t>9201040033</t>
@@ -5566,10 +5566,10 @@
         <v>0</v>
       </c>
       <c r="M63" s="6" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="N63" s="4" t="n">
-        <v>3.72</v>
+        <v>0</v>
       </c>
       <c r="O63" s="7" t="inlineStr">
         <is>
@@ -5577,25 +5577,25 @@
         </is>
       </c>
       <c r="P63" s="3" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="Q63" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S63" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T63" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U63" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" hidden="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
           <t>9303080008</t>
@@ -5647,10 +5647,10 @@
         <v>0</v>
       </c>
       <c r="M64" s="6" t="n">
-        <v>74.75</v>
+        <v>0</v>
       </c>
       <c r="N64" s="4" t="n">
-        <v>44.85</v>
+        <v>0</v>
       </c>
       <c r="O64" s="7" t="inlineStr">
         <is>
@@ -5658,10 +5658,10 @@
         </is>
       </c>
       <c r="P64" s="3" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Q64" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R64" s="2" t="n">
         <v>0</v>
@@ -5673,10 +5673,10 @@
         <v>0</v>
       </c>
       <c r="U64" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" hidden="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
           <t>9303080017</t>
@@ -5728,10 +5728,10 @@
         <v>0</v>
       </c>
       <c r="M65" s="6" t="n">
-        <v>63.6</v>
+        <v>0</v>
       </c>
       <c r="N65" s="4" t="n">
-        <v>38.16</v>
+        <v>0</v>
       </c>
       <c r="O65" s="7" t="inlineStr">
         <is>
@@ -5739,10 +5739,10 @@
         </is>
       </c>
       <c r="P65" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q65" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R65" s="2" t="n">
         <v>0</v>
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="U65" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -5890,10 +5890,10 @@
         <v>0</v>
       </c>
       <c r="M67" s="6" t="n">
-        <v>25.5</v>
+        <v>17</v>
       </c>
       <c r="N67" s="4" t="n">
-        <v>15.3</v>
+        <v>10.2</v>
       </c>
       <c r="O67" s="7" t="inlineStr">
         <is>
@@ -5901,10 +5901,10 @@
         </is>
       </c>
       <c r="P67" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R67" s="2" t="n">
         <v>0</v>
@@ -5916,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" hidden="1">
@@ -6015,7 +6015,7 @@
         </is>
       </c>
       <c r="C71" s="5" t="n">
-        <v>206</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="C73" s="5" t="inlineStr">
         <is>
-          <t>1799.17€</t>
+          <t>769.99€</t>
         </is>
       </c>
     </row>
@@ -6135,7 +6135,7 @@
         </is>
       </c>
       <c r="C82" s="5" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
